--- a/Datasets/budgetten.xlsx
+++ b/Datasets/budgetten.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25017"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fortezzaict-my.sharepoint.com/personal/r_bos_fortezza-azure_nl/Documents/Documents/Fortezza Data Team/Assessments/Assessment Data 2022/Datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S.Bormans\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_AD4DB114E441178AC67DF4D8C697E770693EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3C2B7E-DDF8-4541-980D-9A52D0D90A72}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C442D20-921C-4ADF-9ACA-939177CBF082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="9">
   <si>
     <t>Jaartal</t>
   </si>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,20 +378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C30"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
     <col min="3" max="7" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,334 +402,1582 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2010</v>
+        <v>1995</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>41250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
         <v>43500</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>45500</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>43450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>2010</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2011</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>11050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2012</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>12150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>2013</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>12300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>2014</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>12550</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>2010</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>2011</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>51000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>2012</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>51500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>2013</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15">
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>2014</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>52250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2010</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2011</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2012</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>15250</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2013</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>15300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>49500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2014</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C21">
+        <v>50500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1995</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>10050</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1996</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>11050</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1997</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>12150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1998</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>12550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>13495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>14120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>14745</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>15370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>15995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>15370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>14745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>14120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>13495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2009</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>12245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>12245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>12245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2013</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>12245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>12245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>12245</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>12245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1995</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1996</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>42550</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1997</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1998</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>43650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1999</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2000</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>44750</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2001</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>45300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2002</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>45850</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2003</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2004</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>46950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2005</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>48050</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>2008</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>49150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2009</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>49700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2010</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2011</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>61500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2013</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2014</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>62250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2015</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2016</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67">
+        <v>62750</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1995</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1996</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1997</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1998</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1999</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
         <v>15500</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2000</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2001</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2002</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>15150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2003</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2004</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2005</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2006</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>15585</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2007</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>15700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2008</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>15815</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2009</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>25930</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>2010</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>26045</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>2011</v>
       </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>13150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>26160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>2012</v>
       </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24">
-        <v>13200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>26275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>2013</v>
       </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25">
-        <v>13400</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>16390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>2014</v>
       </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>16505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2015</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>16620</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2016</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>16735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>1995</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>1996</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>1997</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1998</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>38500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1999</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2000</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2001</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2002</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2003</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2004</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2005</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2006</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2007</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2008</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>33500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2009</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>2010</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>32500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2011</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2012</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2013</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2014</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2015</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2016</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2011</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2012</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2013</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2014</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2015</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2016</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1995</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1996</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1997</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1998</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>1999</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2000</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>2001</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>2002</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>2003</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2004</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>2005</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>2006</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>2007</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>2008</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>2009</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>2010</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>2011</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>20050</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>2012</v>
       </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29">
-        <v>20030</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>2013</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>2014</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>2015</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>2016</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>2011</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>2012</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>2013</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>2014</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
         <v>21000</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>2014</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
-        <v>22000</v>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>2015</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>2016</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>19000</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/budgetten.xlsx
+++ b/Datasets/budgetten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S.Bormans\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C442D20-921C-4ADF-9ACA-939177CBF082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC6E58C-1522-4A18-82B5-A1F20486B8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -380,18 +380,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="7" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1995</v>
       </c>
@@ -413,7 +413,7 @@
         <v>31500</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1996</v>
       </c>
@@ -424,7 +424,7 @@
         <v>32500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1997</v>
       </c>
@@ -435,7 +435,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1998</v>
       </c>
@@ -446,7 +446,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1999</v>
       </c>
@@ -457,7 +457,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -468,7 +468,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2001</v>
       </c>
@@ -479,7 +479,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -490,7 +490,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -501,7 +501,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -512,7 +512,7 @@
         <v>40500</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2005</v>
       </c>
@@ -523,7 +523,7 @@
         <v>41500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2006</v>
       </c>
@@ -534,7 +534,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2007</v>
       </c>
@@ -545,7 +545,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2008</v>
       </c>
@@ -556,7 +556,7 @@
         <v>44500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2009</v>
       </c>
@@ -567,15 +567,18 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2010</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2011</v>
       </c>
@@ -586,7 +589,7 @@
         <v>47500</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -597,7 +600,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -608,7 +611,7 @@
         <v>49500</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2014</v>
       </c>
@@ -619,7 +622,7 @@
         <v>50500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2015</v>
       </c>
@@ -630,7 +633,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2016</v>
       </c>
@@ -641,7 +644,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1995</v>
       </c>
@@ -652,7 +655,7 @@
         <v>10050</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1996</v>
       </c>
@@ -663,7 +666,7 @@
         <v>11050</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1997</v>
       </c>
@@ -674,7 +677,7 @@
         <v>12150</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1998</v>
       </c>
@@ -685,7 +688,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1999</v>
       </c>
@@ -696,7 +699,7 @@
         <v>12550</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2000</v>
       </c>
@@ -707,7 +710,7 @@
         <v>13495</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2001</v>
       </c>
@@ -718,7 +721,7 @@
         <v>14120</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -729,7 +732,7 @@
         <v>14745</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2003</v>
       </c>
@@ -740,7 +743,7 @@
         <v>15370</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2004</v>
       </c>
@@ -751,7 +754,7 @@
         <v>15995</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2005</v>
       </c>
@@ -762,7 +765,7 @@
         <v>15370</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2006</v>
       </c>
@@ -773,7 +776,7 @@
         <v>14745</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2007</v>
       </c>
@@ -784,7 +787,7 @@
         <v>14120</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2008</v>
       </c>
@@ -795,7 +798,7 @@
         <v>13495</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2009</v>
       </c>
@@ -806,7 +809,7 @@
         <v>12870</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2010</v>
       </c>
@@ -817,7 +820,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2011</v>
       </c>
@@ -828,7 +831,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2012</v>
       </c>
@@ -839,7 +842,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2013</v>
       </c>
@@ -850,7 +853,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -861,7 +864,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2015</v>
       </c>
@@ -872,7 +875,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2016</v>
       </c>
@@ -883,7 +886,7 @@
         <v>12245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1995</v>
       </c>
@@ -894,7 +897,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1996</v>
       </c>
@@ -905,7 +908,7 @@
         <v>42550</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1997</v>
       </c>
@@ -916,7 +919,7 @@
         <v>43100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1998</v>
       </c>
@@ -927,7 +930,7 @@
         <v>43650</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1999</v>
       </c>
@@ -938,7 +941,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2000</v>
       </c>
@@ -949,7 +952,7 @@
         <v>44750</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2001</v>
       </c>
@@ -960,7 +963,7 @@
         <v>45300</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2002</v>
       </c>
@@ -971,7 +974,7 @@
         <v>45850</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2003</v>
       </c>
@@ -982,7 +985,7 @@
         <v>46400</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2004</v>
       </c>
@@ -993,7 +996,7 @@
         <v>46950</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2005</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>47500</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2006</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>48050</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2007</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2008</v>
       </c>
@@ -1037,7 +1040,7 @@
         <v>49150</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2009</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>49700</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2010</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2011</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2012</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>61500</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2013</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2014</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>62250</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>62500</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2016</v>
       </c>
@@ -1125,7 +1128,7 @@
         <v>62750</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1995</v>
       </c>
@@ -1136,7 +1139,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1996</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>15150</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1997</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>15250</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1998</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1999</v>
       </c>
@@ -1180,15 +1183,18 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2000</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2001</v>
       </c>
@@ -1199,7 +1205,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2002</v>
       </c>
@@ -1210,7 +1216,7 @@
         <v>15150</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2003</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>15250</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2004</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>15300</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2005</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2006</v>
       </c>
@@ -1254,7 +1260,7 @@
         <v>15585</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2007</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2008</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>15815</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2009</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>25930</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2010</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>26045</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2011</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>26160</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2012</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>26275</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2013</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>16390</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2014</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>16505</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2015</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>16620</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>16735</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1995</v>
       </c>
@@ -1375,7 +1381,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1996</v>
       </c>
@@ -1386,7 +1392,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1997</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1998</v>
       </c>
@@ -1408,7 +1414,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1999</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2000</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>37500</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2001</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2002</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>36500</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2003</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2004</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>35500</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2005</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2006</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2007</v>
       </c>
@@ -1507,7 +1513,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2008</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>33500</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2009</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2010</v>
       </c>
@@ -1540,7 +1546,7 @@
         <v>32500</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2011</v>
       </c>
@@ -1551,7 +1557,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2012</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2013</v>
       </c>
@@ -1573,7 +1579,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2014</v>
       </c>
@@ -1584,7 +1590,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2015</v>
       </c>
@@ -1595,7 +1601,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2016</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2011</v>
       </c>
@@ -1617,7 +1623,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2012</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2013</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2014</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2015</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2016</v>
       </c>
@@ -1672,7 +1678,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1995</v>
       </c>
@@ -1683,7 +1689,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1996</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1997</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1998</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1999</v>
       </c>
@@ -1724,10 +1730,10 @@
         <v>8</v>
       </c>
       <c r="C122">
-        <v>2400000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2000</v>
       </c>
@@ -1738,7 +1744,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2001</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2002</v>
       </c>
@@ -1760,7 +1766,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2003</v>
       </c>
@@ -1771,7 +1777,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2004</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2005</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2006</v>
       </c>
@@ -1804,7 +1810,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2007</v>
       </c>
@@ -1815,7 +1821,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2008</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2009</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2010</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2011</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2012</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2013</v>
       </c>
@@ -1881,7 +1887,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2014</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2015</v>
       </c>
@@ -1903,7 +1909,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2016</v>
       </c>
@@ -1914,7 +1920,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2011</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2012</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2013</v>
       </c>
@@ -1947,7 +1953,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2014</v>
       </c>
@@ -1958,7 +1964,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2015</v>
       </c>
@@ -1969,7 +1975,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2016</v>
       </c>
